--- a/templates/banlerauqua.xlsx
+++ b/templates/banlerauqua.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>STT</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Nơi bán lẻ</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -362,21 +365,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="148.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="148.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,6 +389,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
